--- a/trunk/ACMS/Public/NameListSample.xlsx
+++ b/trunk/ACMS/Public/NameListSample.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="報名名冊" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -382,7 +382,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/trunk/ACMS/Public/NameListSample.xlsx
+++ b/trunk/ACMS/Public/NameListSample.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/trunk/ACMS/Public/NameListSample.xlsx
+++ b/trunk/ACMS/Public/NameListSample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>工號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,20 +24,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>說明:上傳文件只會抓取第1個工作表的內容.而且要有工號的欄位</t>
+    <t>說明:上傳文件只會抓取"報名名冊"工作表的內容.而且要有工號的欄位</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A6666</t>
-  </si>
-  <si>
-    <t>A7777</t>
-  </si>
-  <si>
-    <t>A8888</t>
-  </si>
-  <si>
-    <t>A9999</t>
   </si>
 </sst>
 </file>
@@ -382,7 +370,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -393,35 +381,25 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="G3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>1111</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
